--- a/Team-Data/2007-08/3-8-2007-08.xlsx
+++ b/Team-Data/2007-08/3-8-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
         <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>0.419</v>
+        <v>0.41</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -693,10 +760,10 @@
         <v>4.1</v>
       </c>
       <c r="M2" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O2" t="n">
         <v>21.3</v>
@@ -708,10 +775,10 @@
         <v>0.775</v>
       </c>
       <c r="R2" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T2" t="n">
         <v>42.3</v>
@@ -720,7 +787,7 @@
         <v>21.3</v>
       </c>
       <c r="V2" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -729,37 +796,37 @@
         <v>5.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="n">
         <v>95.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
         <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -774,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
@@ -783,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
         <v>4</v>
@@ -792,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU2" t="n">
         <v>17</v>
@@ -801,7 +868,7 @@
         <v>26</v>
       </c>
       <c r="AW2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
         <v>3</v>
@@ -810,10 +877,10 @@
         <v>24</v>
       </c>
       <c r="AZ2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB2" t="n">
         <v>24</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
         <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.476</v>
+        <v>0.474</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.388</v>
+        <v>0.385</v>
       </c>
       <c r="O3" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="P3" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T3" t="n">
         <v>41.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="V3" t="n">
         <v>15.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
         <v>4.5</v>
@@ -917,16 +984,16 @@
         <v>22.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,19 +1017,19 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN3" t="n">
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -974,13 +1041,13 @@
         <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -992,10 +1059,10 @@
         <v>17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -1030,43 +1097,43 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
         <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.381</v>
+        <v>0.371</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O4" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P4" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q4" t="n">
         <v>0.71</v>
@@ -1075,7 +1142,7 @@
         <v>11.3</v>
       </c>
       <c r="S4" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T4" t="n">
         <v>40.8</v>
@@ -1096,49 +1163,49 @@
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
         <v>96.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.6</v>
+        <v>-4.7</v>
       </c>
       <c r="AD4" t="n">
         <v>3</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
@@ -1153,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>24</v>
@@ -1168,7 +1235,7 @@
         <v>14</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -1290,22 +1357,22 @@
         <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF5" t="n">
         <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1356,10 +1423,10 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
         <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>0.571</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1412,13 +1479,13 @@
         <v>36.2</v>
       </c>
       <c r="J6" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K6" t="n">
         <v>0.441</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>19.3</v>
@@ -1436,16 +1503,16 @@
         <v>0.72</v>
       </c>
       <c r="R6" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>44.2</v>
+        <v>44</v>
       </c>
       <c r="U6" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V6" t="n">
         <v>14.2</v>
@@ -1454,22 +1521,22 @@
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y6" t="n">
         <v>4.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD6" t="n">
         <v>3</v>
@@ -1487,22 +1554,22 @@
         <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>20</v>
@@ -1514,10 +1581,10 @@
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
@@ -1529,16 +1596,16 @@
         <v>9</v>
       </c>
       <c r="AW6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
@@ -1547,7 +1614,7 @@
         <v>16</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="n">
         <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.635</v>
+        <v>0.629</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1603,31 +1670,31 @@
         <v>5.9</v>
       </c>
       <c r="M7" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.353</v>
+        <v>0.348</v>
       </c>
       <c r="O7" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="P7" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>11</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U7" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V7" t="n">
         <v>12.9</v>
@@ -1642,40 +1709,40 @@
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AD7" t="n">
         <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
@@ -1684,10 +1751,10 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
         <v>12</v>
@@ -1699,13 +1766,13 @@
         <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT7" t="n">
         <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
@@ -1723,7 +1790,7 @@
         <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0.597</v>
+        <v>0.607</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,7 +1843,7 @@
         <v>39.1</v>
       </c>
       <c r="J8" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.459</v>
@@ -1785,10 +1852,10 @@
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O8" t="n">
         <v>22.9</v>
@@ -1800,22 +1867,22 @@
         <v>0.753</v>
       </c>
       <c r="R8" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
         <v>15.2</v>
       </c>
       <c r="W8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
@@ -1824,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA8" t="n">
         <v>24</v>
@@ -1833,10 +1900,10 @@
         <v>107.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,19 +1945,19 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2063,7 +2130,7 @@
         <v>14</v>
       </c>
       <c r="AS9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT9" t="n">
         <v>21</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="n">
         <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.629</v>
+        <v>0.623</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="J10" t="n">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L10" t="n">
         <v>9.6</v>
@@ -2152,34 +2219,34 @@
         <v>27.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O10" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P10" t="n">
         <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R10" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
         <v>42.3</v>
       </c>
       <c r="U10" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V10" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X10" t="n">
         <v>4.6</v>
@@ -2194,13 +2261,13 @@
         <v>21.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2209,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
@@ -2230,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2242,13 +2309,13 @@
         <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2269,7 +2336,7 @@
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.677</v>
+        <v>0.672</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J11" t="n">
         <v>81.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M11" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O11" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="P11" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R11" t="n">
         <v>12</v>
@@ -2355,7 +2422,7 @@
         <v>44.5</v>
       </c>
       <c r="U11" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V11" t="n">
         <v>14.4</v>
@@ -2370,40 +2437,40 @@
         <v>4.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="AC11" t="n">
         <v>5</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2412,16 +2479,16 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR11" t="n">
         <v>10</v>
@@ -2430,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>10</v>
@@ -2448,16 +2515,16 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
         <v>17</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
         <v>24</v>
       </c>
       <c r="F12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="n">
-        <v>0.381</v>
+        <v>0.387</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2507,7 +2574,7 @@
         <v>85.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
         <v>9</v>
@@ -2516,25 +2583,25 @@
         <v>24.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O12" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
         <v>22.7</v>
@@ -2546,19 +2613,19 @@
         <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z12" t="n">
         <v>23.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="n">
         <v>-2.5</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2597,10 +2664,10 @@
         <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
         <v>9</v>
@@ -2624,22 +2691,22 @@
         <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,34 +2753,34 @@
         <v>34.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.435</v>
       </c>
       <c r="L13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M13" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="N13" t="n">
         <v>0.331</v>
       </c>
       <c r="O13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P13" t="n">
         <v>26.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.789</v>
+        <v>0.787</v>
       </c>
       <c r="R13" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S13" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T13" t="n">
         <v>40.2</v>
@@ -2722,31 +2789,31 @@
         <v>21.4</v>
       </c>
       <c r="V13" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA13" t="n">
         <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC13" t="n">
         <v>-5.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2779,7 +2846,7 @@
         <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2788,7 +2855,7 @@
         <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS13" t="n">
         <v>16</v>
@@ -2803,19 +2870,19 @@
         <v>13</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2952,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -2961,7 +3028,7 @@
         <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2976,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
         <v>16</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>0.242</v>
+        <v>0.246</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L15" t="n">
         <v>7.6</v>
@@ -3062,13 +3129,13 @@
         <v>21.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q15" t="n">
         <v>0.734</v>
@@ -3077,10 +3144,10 @@
         <v>10.2</v>
       </c>
       <c r="S15" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T15" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U15" t="n">
         <v>19.4</v>
@@ -3089,10 +3156,10 @@
         <v>15.8</v>
       </c>
       <c r="W15" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.8</v>
@@ -3101,22 +3168,22 @@
         <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>28</v>
@@ -3128,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
         <v>17</v>
@@ -3155,10 +3222,10 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>27</v>
@@ -3170,13 +3237,13 @@
         <v>27</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
         <v>7</v>
@@ -3185,7 +3252,7 @@
         <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" t="n">
-        <v>0.18</v>
+        <v>0.183</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J16" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
@@ -3241,22 +3308,22 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="N16" t="n">
         <v>0.344</v>
       </c>
       <c r="O16" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P16" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q16" t="n">
         <v>0.724</v>
       </c>
       <c r="R16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S16" t="n">
         <v>29</v>
@@ -3271,28 +3338,28 @@
         <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z16" t="n">
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB16" t="n">
         <v>93.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.8</v>
+        <v>-7.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3322,10 +3389,10 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>19</v>
@@ -3346,7 +3413,7 @@
         <v>22</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW16" t="n">
         <v>18</v>
@@ -3361,7 +3428,7 @@
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -3474,25 +3541,25 @@
         <v>-6.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -3528,7 +3595,7 @@
         <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
         <v>23</v>
@@ -3549,7 +3616,7 @@
         <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
         <v>48</v>
       </c>
       <c r="G18" t="n">
-        <v>0.226</v>
+        <v>0.213</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
@@ -3599,25 +3666,25 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M18" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O18" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P18" t="n">
         <v>20.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.724</v>
+        <v>0.722</v>
       </c>
       <c r="R18" t="n">
         <v>12.1</v>
@@ -3632,10 +3699,10 @@
         <v>19.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W18" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X18" t="n">
         <v>3.7</v>
@@ -3644,19 +3711,19 @@
         <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.4</v>
+        <v>-7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3677,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3710,10 +3777,10 @@
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="n">
         <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>0.413</v>
+        <v>0.419</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3781,25 +3848,25 @@
         <v>78.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M19" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N19" t="n">
         <v>0.341</v>
       </c>
       <c r="O19" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P19" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R19" t="n">
         <v>11.4</v>
@@ -3811,10 +3878,10 @@
         <v>42.4</v>
       </c>
       <c r="U19" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V19" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W19" t="n">
         <v>6.5</v>
@@ -3826,16 +3893,16 @@
         <v>4.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="AB19" t="n">
         <v>94</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="AD19" t="n">
         <v>3</v>
@@ -3844,25 +3911,25 @@
         <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="n">
         <v>17</v>
@@ -3874,16 +3941,16 @@
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>9</v>
@@ -3892,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="n">
         <v>42</v>
       </c>
       <c r="F20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>0.677</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,7 +4027,7 @@
         <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K20" t="n">
         <v>0.461</v>
@@ -3972,22 +4039,22 @@
         <v>20.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="O20" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.773</v>
+        <v>0.777</v>
       </c>
       <c r="R20" t="n">
         <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T20" t="n">
         <v>42.4</v>
@@ -4008,19 +4075,19 @@
         <v>4.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA20" t="n">
         <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4032,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4041,13 +4108,13 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>5</v>
       </c>
       <c r="AM20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN20" t="n">
         <v>2</v>
@@ -4059,7 +4126,7 @@
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR20" t="n">
         <v>13</v>
@@ -4095,7 +4162,7 @@
         <v>10</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -4124,52 +4191,52 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" t="n">
-        <v>0.286</v>
+        <v>0.29</v>
       </c>
       <c r="H21" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J21" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
         <v>5.8</v>
       </c>
       <c r="M21" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O21" t="n">
         <v>19</v>
       </c>
       <c r="P21" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R21" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
         <v>41.8</v>
@@ -4178,7 +4245,7 @@
         <v>18.5</v>
       </c>
       <c r="V21" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W21" t="n">
         <v>6.1</v>
@@ -4196,7 +4263,7 @@
         <v>21</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.5</v>
+        <v>95.2</v>
       </c>
       <c r="AC21" t="n">
         <v>-6.3</v>
@@ -4214,16 +4281,16 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
@@ -4232,7 +4299,7 @@
         <v>16</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
         <v>12</v>
@@ -4241,10 +4308,10 @@
         <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS21" t="n">
         <v>23</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
         <v>28</v>
@@ -4271,13 +4338,13 @@
         <v>18</v>
       </c>
       <c r="BA21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB21" t="n">
         <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="n">
         <v>40</v>
       </c>
       <c r="F22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>0.625</v>
+        <v>0.635</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J22" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.473</v>
@@ -4336,34 +4403,34 @@
         <v>24.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="O22" t="n">
         <v>21.1</v>
       </c>
       <c r="P22" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="Q22" t="n">
         <v>0.727</v>
       </c>
       <c r="R22" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
         <v>42.2</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V22" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W22" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X22" t="n">
         <v>4.2</v>
@@ -4378,10 +4445,10 @@
         <v>23.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4390,16 +4457,16 @@
         <v>8</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4417,28 +4484,28 @@
         <v>6</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR22" t="n">
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW22" t="n">
         <v>26</v>
@@ -4450,7 +4517,7 @@
         <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
@@ -4629,7 +4696,7 @@
         <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>4.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>8</v>
@@ -4760,7 +4827,7 @@
         <v>8</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>2</v>
@@ -4802,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -4852,55 +4919,55 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="n">
         <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0.524</v>
+        <v>0.516</v>
       </c>
       <c r="H25" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="J25" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K25" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O25" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P25" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q25" t="n">
         <v>0.766</v>
       </c>
       <c r="R25" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="U25" t="n">
         <v>21</v>
@@ -4924,16 +4991,16 @@
         <v>20.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
         <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4945,10 +5012,10 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
         <v>18</v>
@@ -4963,7 +5030,7 @@
         <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
         <v>24</v>
@@ -4978,7 +5045,7 @@
         <v>19</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
         <v>20</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5136,7 +5203,7 @@
         <v>12</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
         <v>19</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>28</v>
@@ -5178,16 +5245,16 @@
         <v>27</v>
       </c>
       <c r="AZ26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
@@ -5306,13 +5373,13 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK27" t="n">
         <v>14</v>
@@ -5321,7 +5388,7 @@
         <v>6</v>
       </c>
       <c r="AM27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN27" t="n">
         <v>5</v>
@@ -5330,7 +5397,7 @@
         <v>26</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ27" t="n">
         <v>13</v>
@@ -5339,13 +5406,13 @@
         <v>24</v>
       </c>
       <c r="AS27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT27" t="n">
         <v>17</v>
       </c>
       <c r="AU27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV27" t="n">
         <v>5</v>
@@ -5363,13 +5430,13 @@
         <v>2</v>
       </c>
       <c r="BA27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB27" t="n">
         <v>21</v>
       </c>
       <c r="BC27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5488,7 +5555,7 @@
         <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5506,7 +5573,7 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO28" t="n">
         <v>25</v>
@@ -5518,7 +5585,7 @@
         <v>12</v>
       </c>
       <c r="AR28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5545,7 +5612,7 @@
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
         <v>18</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>4</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5676,13 +5743,13 @@
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5706,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
         <v>6</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.656</v>
+        <v>0.651</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.497</v>
+        <v>0.495</v>
       </c>
       <c r="L30" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.368</v>
+        <v>0.361</v>
       </c>
       <c r="O30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P30" t="n">
         <v>28.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R30" t="n">
         <v>11.4</v>
@@ -5813,7 +5880,7 @@
         <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="V30" t="n">
         <v>15.1</v>
@@ -5828,22 +5895,22 @@
         <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="AA30" t="n">
         <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.3</v>
+        <v>105.9</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>7</v>
@@ -5870,10 +5937,10 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
         <v>3</v>
@@ -5882,7 +5949,7 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
@@ -5944,34 +6011,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="n">
         <v>30</v>
       </c>
       <c r="F31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="n">
-        <v>0.484</v>
+        <v>0.492</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K31" t="n">
         <v>0.441</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N31" t="n">
         <v>0.34</v>
@@ -5980,10 +6047,10 @@
         <v>19.3</v>
       </c>
       <c r="P31" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="R31" t="n">
         <v>12.4</v>
@@ -5995,7 +6062,7 @@
         <v>42.1</v>
       </c>
       <c r="U31" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V31" t="n">
         <v>13.6</v>
@@ -6010,10 +6077,10 @@
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB31" t="n">
         <v>98.09999999999999</v>
@@ -6022,7 +6089,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6037,13 +6104,13 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
@@ -6052,13 +6119,13 @@
         <v>12</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
         <v>3</v>
@@ -6088,16 +6155,16 @@
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
       </c>
       <c r="BC31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-8-2007-08</t>
+          <t>2008-03-08</t>
         </is>
       </c>
     </row>
